--- a/medicine/Mort/Cimetière_naturel_de_Souché/Cimetière_naturel_de_Souché.xlsx
+++ b/medicine/Mort/Cimetière_naturel_de_Souché/Cimetière_naturel_de_Souché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_naturel_de_Souch%C3%A9</t>
+          <t>Cimetière_naturel_de_Souché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière naturel de Souché, situé dans l'ancienne commune de Souché, aujourd'hui partie de Niort, est un cimetière naturel conçu comme un lieu de sépulture écologique[1] ouvert en 2014.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière naturel de Souché, situé dans l'ancienne commune de Souché, aujourd'hui partie de Niort, est un cimetière naturel conçu comme un lieu de sépulture écologique ouvert en 2014.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_naturel_de_Souch%C3%A9</t>
+          <t>Cimetière_naturel_de_Souché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les défunts sont enterrés dans un cercueil de bois ou de carton, sans vernis ni poignées en cuivre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les défunts sont enterrés dans un cercueil de bois ou de carton, sans vernis ni poignées en cuivre.
 Les cendres des personnes incinérées sont enterrées dans des urnes biodégradables.
-Un pupitre permet de matérialiser l'emplacement des tombes, et les familles peuvent y planter des fleurs[3].
+Un pupitre permet de matérialiser l'emplacement des tombes, et les familles peuvent y planter des fleurs.
 Il est orné de sculptures, comme celle du Gardien, de l'Arbre des Printemps et de la Porte.
 </t>
         </is>
